--- a/Série histórica das medições - Grupo DPJ.xlsx
+++ b/Série histórica das medições - Grupo DPJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Painel Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB230A8-7DF0-4E10-B11A-F52247E0800C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D03C17B-E858-4476-96C2-E405965C29D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Pessoa</t>
   </si>
@@ -77,16 +77,22 @@
   </si>
   <si>
     <t>Keven</t>
+  </si>
+  <si>
+    <t>Antoniazzi</t>
+  </si>
+  <si>
+    <t>Isabely</t>
+  </si>
+  <si>
+    <t>Meta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +104,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,12 +148,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,15 +462,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,322 +501,399 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>46048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>84.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>29.4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>30.4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>33.1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1818</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>53</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>46048</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>75.7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>34.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>50.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>1371</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>46048</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>100.4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>32.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>30.9</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>1986</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>70</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>46048</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>86.4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>24.4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>22.8</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>38.799999999999997</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>1862</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>46</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>46048</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>64.400000000000006</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>25.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>38.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>26.5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>1311</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>37</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>46048</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>61.1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>22.4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>35.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>26</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>1317</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>24</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>46048</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>56.3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>20.3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>29.4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>28.2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>1288</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>46048</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>62.4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>23.2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>37.4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>24.8</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>1331</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>38</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>46049</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>81.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>31.8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>49.1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>21.4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>1492</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>69</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>46049</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>72</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>25.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>24.3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>38.299999999999997</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>1687</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>33</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>46052</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>83.9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>28.7</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>30.2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>33.6</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>1818</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>53</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>13</v>
       </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6">
+        <v>46055</v>
+      </c>
+      <c r="C13" s="5">
+        <v>71.2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1613</v>
+      </c>
+      <c r="H13" s="5">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
+        <v>46144</v>
+      </c>
+      <c r="C14" s="5">
+        <v>88.1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>47.2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1606</v>
+      </c>
+      <c r="H14" s="5">
+        <v>54</v>
+      </c>
+      <c r="I14" s="5">
+        <v>8</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
